--- a/Model/BayesLSTM/Univariate/result/Manufacturing/BRA.xlsx
+++ b/Model/BayesLSTM/Univariate/result/Manufacturing/BRA.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,13 +463,13 @@
         <v>1988</v>
       </c>
       <c r="B2" t="n">
-        <v>11.63365745544434</v>
+        <v>13.55675983428955</v>
       </c>
       <c r="C2" t="n">
-        <v>5.190112113952637</v>
+        <v>10.86917781829834</v>
       </c>
       <c r="D2" t="n">
-        <v>18.07720184326172</v>
+        <v>16.24434089660645</v>
       </c>
     </row>
     <row r="3">
@@ -477,13 +477,13 @@
         <v>1989</v>
       </c>
       <c r="B3" t="n">
-        <v>10.91265296936035</v>
+        <v>13.61610412597656</v>
       </c>
       <c r="C3" t="n">
-        <v>1.947928428649902</v>
+        <v>11.37443161010742</v>
       </c>
       <c r="D3" t="n">
-        <v>19.87737655639648</v>
+        <v>15.8577766418457</v>
       </c>
     </row>
     <row r="4">
@@ -491,13 +491,13 @@
         <v>1990</v>
       </c>
       <c r="B4" t="n">
-        <v>12.63737297058105</v>
+        <v>14.16848468780518</v>
       </c>
       <c r="C4" t="n">
-        <v>4.799386024475098</v>
+        <v>11.83501148223877</v>
       </c>
       <c r="D4" t="n">
-        <v>20.47536087036133</v>
+        <v>16.50195693969727</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         <v>1991</v>
       </c>
       <c r="B5" t="n">
-        <v>12.72171878814697</v>
+        <v>14.03731822967529</v>
       </c>
       <c r="C5" t="n">
-        <v>6.670836448669434</v>
+        <v>11.66925239562988</v>
       </c>
       <c r="D5" t="n">
-        <v>18.77260208129883</v>
+        <v>16.4053840637207</v>
       </c>
     </row>
     <row r="6">
@@ -519,13 +519,13 @@
         <v>1992</v>
       </c>
       <c r="B6" t="n">
-        <v>11.74323844909668</v>
+        <v>14.22031211853027</v>
       </c>
       <c r="C6" t="n">
-        <v>3.715391159057617</v>
+        <v>11.62259769439697</v>
       </c>
       <c r="D6" t="n">
-        <v>19.77108573913574</v>
+        <v>16.81802749633789</v>
       </c>
     </row>
     <row r="7">
@@ -533,13 +533,13 @@
         <v>1993</v>
       </c>
       <c r="B7" t="n">
-        <v>11.44565296173096</v>
+        <v>13.84640789031982</v>
       </c>
       <c r="C7" t="n">
-        <v>4.453718185424805</v>
+        <v>11.72322845458984</v>
       </c>
       <c r="D7" t="n">
-        <v>18.43758773803711</v>
+        <v>15.9695873260498</v>
       </c>
     </row>
     <row r="8">
@@ -547,13 +547,13 @@
         <v>1994</v>
       </c>
       <c r="B8" t="n">
-        <v>11.21394157409668</v>
+        <v>14.01137828826904</v>
       </c>
       <c r="C8" t="n">
-        <v>5.682864665985107</v>
+        <v>11.68868827819824</v>
       </c>
       <c r="D8" t="n">
-        <v>16.74501800537109</v>
+        <v>16.33406829833984</v>
       </c>
     </row>
     <row r="9">
@@ -561,13 +561,13 @@
         <v>1995</v>
       </c>
       <c r="B9" t="n">
-        <v>11.24706840515137</v>
+        <v>14.63979053497314</v>
       </c>
       <c r="C9" t="n">
-        <v>3.785543441772461</v>
+        <v>12.48821640014648</v>
       </c>
       <c r="D9" t="n">
-        <v>18.70859336853027</v>
+        <v>16.7913646697998</v>
       </c>
     </row>
     <row r="10">
@@ -575,13 +575,13 @@
         <v>1996</v>
       </c>
       <c r="B10" t="n">
-        <v>11.82744693756104</v>
+        <v>14.44355297088623</v>
       </c>
       <c r="C10" t="n">
-        <v>2.940044403076172</v>
+        <v>12.176438331604</v>
       </c>
       <c r="D10" t="n">
-        <v>20.7148494720459</v>
+        <v>16.71066665649414</v>
       </c>
     </row>
     <row r="11">
@@ -589,13 +589,13 @@
         <v>1997</v>
       </c>
       <c r="B11" t="n">
-        <v>11.42741584777832</v>
+        <v>14.46640300750732</v>
       </c>
       <c r="C11" t="n">
-        <v>3.459603786468506</v>
+        <v>12.62696743011475</v>
       </c>
       <c r="D11" t="n">
-        <v>19.39522743225098</v>
+        <v>16.30583953857422</v>
       </c>
     </row>
     <row r="12">
@@ -603,13 +603,13 @@
         <v>1998</v>
       </c>
       <c r="B12" t="n">
-        <v>11.89349937438965</v>
+        <v>14.03044414520264</v>
       </c>
       <c r="C12" t="n">
-        <v>3.504179954528809</v>
+        <v>12.62209129333496</v>
       </c>
       <c r="D12" t="n">
-        <v>20.28281784057617</v>
+        <v>15.43879699707031</v>
       </c>
     </row>
     <row r="13">
@@ -617,13 +617,13 @@
         <v>1999</v>
       </c>
       <c r="B13" t="n">
-        <v>11.21179580688477</v>
+        <v>14.5640287399292</v>
       </c>
       <c r="C13" t="n">
-        <v>3.406503677368164</v>
+        <v>12.52925872802734</v>
       </c>
       <c r="D13" t="n">
-        <v>19.01708793640137</v>
+        <v>16.59879875183105</v>
       </c>
     </row>
     <row r="14">
@@ -631,13 +631,13 @@
         <v>2000</v>
       </c>
       <c r="B14" t="n">
-        <v>12.47499370574951</v>
+        <v>14.17622852325439</v>
       </c>
       <c r="C14" t="n">
-        <v>3.874241828918457</v>
+        <v>12.18417930603027</v>
       </c>
       <c r="D14" t="n">
-        <v>21.07574462890625</v>
+        <v>16.16827774047852</v>
       </c>
     </row>
     <row r="15">
@@ -645,13 +645,13 @@
         <v>2001</v>
       </c>
       <c r="B15" t="n">
-        <v>12.83751106262207</v>
+        <v>14.42742729187012</v>
       </c>
       <c r="C15" t="n">
-        <v>3.867733001708984</v>
+        <v>12.50797843933105</v>
       </c>
       <c r="D15" t="n">
-        <v>21.80728912353516</v>
+        <v>16.34687614440918</v>
       </c>
     </row>
     <row r="16">
@@ -659,13 +659,13 @@
         <v>2002</v>
       </c>
       <c r="B16" t="n">
-        <v>10.7763614654541</v>
+        <v>13.81371116638184</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5195484161376953</v>
+        <v>11.23239135742188</v>
       </c>
       <c r="D16" t="n">
-        <v>21.03317451477051</v>
+        <v>16.3950309753418</v>
       </c>
     </row>
     <row r="17">
@@ -673,13 +673,13 @@
         <v>2003</v>
       </c>
       <c r="B17" t="n">
-        <v>11.21241188049316</v>
+        <v>14.34410285949707</v>
       </c>
       <c r="C17" t="n">
-        <v>4.708746910095215</v>
+        <v>12.16534233093262</v>
       </c>
       <c r="D17" t="n">
-        <v>17.7160758972168</v>
+        <v>16.52286338806152</v>
       </c>
     </row>
     <row r="18">
@@ -687,13 +687,13 @@
         <v>2004</v>
       </c>
       <c r="B18" t="n">
-        <v>10.96237754821777</v>
+        <v>13.81685447692871</v>
       </c>
       <c r="C18" t="n">
-        <v>2.755620956420898</v>
+        <v>12.09845447540283</v>
       </c>
       <c r="D18" t="n">
-        <v>19.16913414001465</v>
+        <v>15.53525447845459</v>
       </c>
     </row>
     <row r="19">
@@ -701,13 +701,13 @@
         <v>2005</v>
       </c>
       <c r="B19" t="n">
-        <v>9.18939208984375</v>
+        <v>14.45693683624268</v>
       </c>
       <c r="C19" t="n">
-        <v>1.84988260269165</v>
+        <v>12.66121959686279</v>
       </c>
       <c r="D19" t="n">
-        <v>16.52890205383301</v>
+        <v>16.25265312194824</v>
       </c>
     </row>
     <row r="20">
@@ -715,13 +715,13 @@
         <v>2006</v>
       </c>
       <c r="B20" t="n">
-        <v>9.496829032897949</v>
+        <v>14.41725158691406</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1087350845336914</v>
+        <v>12.85641956329346</v>
       </c>
       <c r="D20" t="n">
-        <v>18.88492202758789</v>
+        <v>15.97808361053467</v>
       </c>
     </row>
     <row r="21">
@@ -729,13 +729,13 @@
         <v>2007</v>
       </c>
       <c r="B21" t="n">
-        <v>9.804506301879883</v>
+        <v>14.14952087402344</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8786811828613281</v>
+        <v>12.23231983184814</v>
       </c>
       <c r="D21" t="n">
-        <v>18.73033142089844</v>
+        <v>16.06672286987305</v>
       </c>
     </row>
     <row r="22">
@@ -743,13 +743,13 @@
         <v>2008</v>
       </c>
       <c r="B22" t="n">
-        <v>10.32394886016846</v>
+        <v>14.12848854064941</v>
       </c>
       <c r="C22" t="n">
-        <v>2.10658073425293</v>
+        <v>12.04824924468994</v>
       </c>
       <c r="D22" t="n">
-        <v>18.54131698608398</v>
+        <v>16.20872688293457</v>
       </c>
     </row>
     <row r="23">
@@ -757,13 +757,13 @@
         <v>2009</v>
       </c>
       <c r="B23" t="n">
-        <v>9.844133377075195</v>
+        <v>13.98759460449219</v>
       </c>
       <c r="C23" t="n">
-        <v>2.799704074859619</v>
+        <v>12.30910873413086</v>
       </c>
       <c r="D23" t="n">
-        <v>16.88856315612793</v>
+        <v>15.66608047485352</v>
       </c>
     </row>
     <row r="24">
@@ -771,13 +771,13 @@
         <v>2010</v>
       </c>
       <c r="B24" t="n">
-        <v>10.05282115936279</v>
+        <v>14.24033546447754</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7202129364013672</v>
+        <v>11.67571067810059</v>
       </c>
       <c r="D24" t="n">
-        <v>19.38542938232422</v>
+        <v>16.80496025085449</v>
       </c>
     </row>
     <row r="25">
@@ -785,13 +785,13 @@
         <v>2011</v>
       </c>
       <c r="B25" t="n">
-        <v>10.58936595916748</v>
+        <v>14.26629638671875</v>
       </c>
       <c r="C25" t="n">
-        <v>1.828207015991211</v>
+        <v>12.03786754608154</v>
       </c>
       <c r="D25" t="n">
-        <v>19.35052490234375</v>
+        <v>16.49472427368164</v>
       </c>
     </row>
     <row r="26">
@@ -799,13 +799,13 @@
         <v>2012</v>
       </c>
       <c r="B26" t="n">
-        <v>10.42364025115967</v>
+        <v>14.22078132629395</v>
       </c>
       <c r="C26" t="n">
-        <v>1.024686813354492</v>
+        <v>12.02645111083984</v>
       </c>
       <c r="D26" t="n">
-        <v>19.82259368896484</v>
+        <v>16.41511154174805</v>
       </c>
     </row>
     <row r="27">
@@ -813,13 +813,13 @@
         <v>2013</v>
       </c>
       <c r="B27" t="n">
-        <v>11.08572006225586</v>
+        <v>14.26095867156982</v>
       </c>
       <c r="C27" t="n">
-        <v>3.491722106933594</v>
+        <v>11.6207275390625</v>
       </c>
       <c r="D27" t="n">
-        <v>18.67971801757812</v>
+        <v>16.90118980407715</v>
       </c>
     </row>
     <row r="28">
@@ -827,13 +827,13 @@
         <v>2014</v>
       </c>
       <c r="B28" t="n">
-        <v>11.22246170043945</v>
+        <v>14.29951667785645</v>
       </c>
       <c r="C28" t="n">
-        <v>3.980645656585693</v>
+        <v>11.69295787811279</v>
       </c>
       <c r="D28" t="n">
-        <v>18.46427726745605</v>
+        <v>16.90607452392578</v>
       </c>
     </row>
     <row r="29">
@@ -841,13 +841,13 @@
         <v>2015</v>
       </c>
       <c r="B29" t="n">
-        <v>10.70320701599121</v>
+        <v>14.31424427032471</v>
       </c>
       <c r="C29" t="n">
-        <v>3.527007579803467</v>
+        <v>11.67953109741211</v>
       </c>
       <c r="D29" t="n">
-        <v>17.8794059753418</v>
+        <v>16.9489574432373</v>
       </c>
     </row>
     <row r="30">
@@ -855,83 +855,13 @@
         <v>2016</v>
       </c>
       <c r="B30" t="n">
-        <v>10.65378093719482</v>
+        <v>14.31447410583496</v>
       </c>
       <c r="C30" t="n">
-        <v>3.496500492095947</v>
+        <v>11.88051795959473</v>
       </c>
       <c r="D30" t="n">
-        <v>17.81106185913086</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B31" t="n">
-        <v>10.1869478225708</v>
-      </c>
-      <c r="C31" t="n">
-        <v>2.136780738830566</v>
-      </c>
-      <c r="D31" t="n">
-        <v>18.23711395263672</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B32" t="n">
-        <v>9.420561790466309</v>
-      </c>
-      <c r="C32" t="n">
-        <v>1.495393753051758</v>
-      </c>
-      <c r="D32" t="n">
-        <v>17.34572982788086</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B33" t="n">
-        <v>9.327699661254883</v>
-      </c>
-      <c r="C33" t="n">
-        <v>-0.1993026733398438</v>
-      </c>
-      <c r="D33" t="n">
-        <v>18.85470199584961</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B34" t="n">
-        <v>9.89478588104248</v>
-      </c>
-      <c r="C34" t="n">
-        <v>-0.430668830871582</v>
-      </c>
-      <c r="D34" t="n">
-        <v>20.22024154663086</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B35" t="n">
-        <v>10.07142448425293</v>
-      </c>
-      <c r="C35" t="n">
-        <v>-0.6284646987915039</v>
-      </c>
-      <c r="D35" t="n">
-        <v>20.77131271362305</v>
+        <v>16.7484302520752</v>
       </c>
     </row>
   </sheetData>
@@ -977,72 +907,72 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>20.1301025390625</v>
+        <v>14.41048622131348</v>
       </c>
       <c r="C2" t="n">
-        <v>15.61978983945776</v>
+        <v>12.56782627105713</v>
       </c>
       <c r="D2" t="n">
-        <v>24.64041523866724</v>
+        <v>16.25314521789551</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>12.98168525695801</v>
+        <v>14.26835823059082</v>
       </c>
       <c r="C3" t="n">
-        <v>7.415937145039685</v>
+        <v>11.89172649383545</v>
       </c>
       <c r="D3" t="n">
-        <v>18.54743336887633</v>
+        <v>16.64499092102051</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>11.04926738739014</v>
+        <v>13.99234962463379</v>
       </c>
       <c r="C4" t="n">
-        <v>7.558378542472219</v>
+        <v>11.47931861877441</v>
       </c>
       <c r="D4" t="n">
-        <v>14.54015623230805</v>
+        <v>16.50538063049316</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>20.87420101165771</v>
+        <v>13.97088050842285</v>
       </c>
       <c r="C5" t="n">
-        <v>13.74729424675411</v>
+        <v>12.58335399627686</v>
       </c>
       <c r="D5" t="n">
-        <v>28.00110777656132</v>
+        <v>15.35840702056885</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>11.29186124801636</v>
+        <v>14.24088001251221</v>
       </c>
       <c r="C6" t="n">
-        <v>3.259395592771996</v>
+        <v>12.07597637176514</v>
       </c>
       <c r="D6" t="n">
-        <v>19.32432690326072</v>
+        <v>16.40578460693359</v>
       </c>
     </row>
   </sheetData>
@@ -1091,13 +1021,13 @@
         <v>1988</v>
       </c>
       <c r="B2" t="n">
-        <v>14.75900554656982</v>
+        <v>12.34498405456543</v>
       </c>
       <c r="C2" t="n">
-        <v>10.91777420043945</v>
+        <v>5.956314086914062</v>
       </c>
       <c r="D2" t="n">
-        <v>18.6002368927002</v>
+        <v>18.7336540222168</v>
       </c>
     </row>
     <row r="3">
@@ -1105,13 +1035,13 @@
         <v>1989</v>
       </c>
       <c r="B3" t="n">
-        <v>16.92021179199219</v>
+        <v>11.93974208831787</v>
       </c>
       <c r="C3" t="n">
-        <v>10.79088306427002</v>
+        <v>6.015824794769287</v>
       </c>
       <c r="D3" t="n">
-        <v>23.04954147338867</v>
+        <v>17.8636589050293</v>
       </c>
     </row>
     <row r="4">
@@ -1119,13 +1049,13 @@
         <v>1990</v>
       </c>
       <c r="B4" t="n">
-        <v>17.50205612182617</v>
+        <v>11.06043815612793</v>
       </c>
       <c r="C4" t="n">
-        <v>10.63023948669434</v>
+        <v>5.827599048614502</v>
       </c>
       <c r="D4" t="n">
-        <v>24.37387275695801</v>
+        <v>16.29327774047852</v>
       </c>
     </row>
     <row r="5">
@@ -1133,13 +1063,13 @@
         <v>1991</v>
       </c>
       <c r="B5" t="n">
-        <v>16.83009147644043</v>
+        <v>10.7548999786377</v>
       </c>
       <c r="C5" t="n">
-        <v>9.832235336303711</v>
+        <v>6.118984699249268</v>
       </c>
       <c r="D5" t="n">
-        <v>23.82794761657715</v>
+        <v>15.39081573486328</v>
       </c>
     </row>
     <row r="6">
@@ -1147,13 +1077,13 @@
         <v>1992</v>
       </c>
       <c r="B6" t="n">
-        <v>17.02231979370117</v>
+        <v>11.08669853210449</v>
       </c>
       <c r="C6" t="n">
-        <v>9.749603271484375</v>
+        <v>4.26991605758667</v>
       </c>
       <c r="D6" t="n">
-        <v>24.29503631591797</v>
+        <v>17.90348052978516</v>
       </c>
     </row>
     <row r="7">
@@ -1161,13 +1091,13 @@
         <v>1993</v>
       </c>
       <c r="B7" t="n">
-        <v>16.90686416625977</v>
+        <v>10.1353235244751</v>
       </c>
       <c r="C7" t="n">
-        <v>10.68604469299316</v>
+        <v>3.791752338409424</v>
       </c>
       <c r="D7" t="n">
-        <v>23.12768363952637</v>
+        <v>16.47889518737793</v>
       </c>
     </row>
     <row r="8">
@@ -1175,13 +1105,13 @@
         <v>1994</v>
       </c>
       <c r="B8" t="n">
-        <v>16.88072776794434</v>
+        <v>10.93621253967285</v>
       </c>
       <c r="C8" t="n">
-        <v>10.76421356201172</v>
+        <v>4.921067714691162</v>
       </c>
       <c r="D8" t="n">
-        <v>22.99724197387695</v>
+        <v>16.95135688781738</v>
       </c>
     </row>
     <row r="9">
@@ -1189,13 +1119,13 @@
         <v>1995</v>
       </c>
       <c r="B9" t="n">
-        <v>16.4445915222168</v>
+        <v>11.34963130950928</v>
       </c>
       <c r="C9" t="n">
-        <v>10.62266635894775</v>
+        <v>5.52026891708374</v>
       </c>
       <c r="D9" t="n">
-        <v>22.26651763916016</v>
+        <v>17.17899322509766</v>
       </c>
     </row>
     <row r="10">
@@ -1203,13 +1133,13 @@
         <v>1996</v>
       </c>
       <c r="B10" t="n">
-        <v>16.3682689666748</v>
+        <v>11.28124237060547</v>
       </c>
       <c r="C10" t="n">
-        <v>10.53458976745605</v>
+        <v>5.724701881408691</v>
       </c>
       <c r="D10" t="n">
-        <v>22.20194816589355</v>
+        <v>16.83778381347656</v>
       </c>
     </row>
     <row r="11">
@@ -1217,13 +1147,13 @@
         <v>1997</v>
       </c>
       <c r="B11" t="n">
-        <v>15.92588520050049</v>
+        <v>10.67239665985107</v>
       </c>
       <c r="C11" t="n">
-        <v>9.913240432739258</v>
+        <v>4.145021438598633</v>
       </c>
       <c r="D11" t="n">
-        <v>21.93852996826172</v>
+        <v>17.19977188110352</v>
       </c>
     </row>
     <row r="12">
@@ -1231,13 +1161,13 @@
         <v>1998</v>
       </c>
       <c r="B12" t="n">
-        <v>15.4444408416748</v>
+        <v>12.09069156646729</v>
       </c>
       <c r="C12" t="n">
-        <v>9.122625350952148</v>
+        <v>4.642117500305176</v>
       </c>
       <c r="D12" t="n">
-        <v>21.76625633239746</v>
+        <v>19.53926467895508</v>
       </c>
     </row>
     <row r="13">
@@ -1245,13 +1175,13 @@
         <v>1999</v>
       </c>
       <c r="B13" t="n">
-        <v>16.19777679443359</v>
+        <v>11.68879127502441</v>
       </c>
       <c r="C13" t="n">
-        <v>11.04644203186035</v>
+        <v>4.993544578552246</v>
       </c>
       <c r="D13" t="n">
-        <v>21.34911155700684</v>
+        <v>18.38403701782227</v>
       </c>
     </row>
     <row r="14">
@@ -1259,13 +1189,13 @@
         <v>2000</v>
       </c>
       <c r="B14" t="n">
-        <v>17.02529525756836</v>
+        <v>11.97773742675781</v>
       </c>
       <c r="C14" t="n">
-        <v>12.21563339233398</v>
+        <v>4.170132160186768</v>
       </c>
       <c r="D14" t="n">
-        <v>21.83495712280273</v>
+        <v>19.78534317016602</v>
       </c>
     </row>
     <row r="15">
@@ -1273,13 +1203,13 @@
         <v>2001</v>
       </c>
       <c r="B15" t="n">
-        <v>17.06489944458008</v>
+        <v>11.90057182312012</v>
       </c>
       <c r="C15" t="n">
-        <v>11.36865520477295</v>
+        <v>4.247325897216797</v>
       </c>
       <c r="D15" t="n">
-        <v>22.76114273071289</v>
+        <v>19.55381774902344</v>
       </c>
     </row>
     <row r="16">
@@ -1287,13 +1217,13 @@
         <v>2002</v>
       </c>
       <c r="B16" t="n">
-        <v>16.99884033203125</v>
+        <v>12.10855579376221</v>
       </c>
       <c r="C16" t="n">
-        <v>12.21126174926758</v>
+        <v>7.308675289154053</v>
       </c>
       <c r="D16" t="n">
-        <v>21.78641891479492</v>
+        <v>16.9084358215332</v>
       </c>
     </row>
     <row r="17">
@@ -1301,13 +1231,13 @@
         <v>2003</v>
       </c>
       <c r="B17" t="n">
-        <v>16.63642501831055</v>
+        <v>11.58511161804199</v>
       </c>
       <c r="C17" t="n">
-        <v>12.59384155273438</v>
+        <v>5.973928928375244</v>
       </c>
       <c r="D17" t="n">
-        <v>20.67900848388672</v>
+        <v>17.1962947845459</v>
       </c>
     </row>
     <row r="18">
@@ -1315,13 +1245,13 @@
         <v>2004</v>
       </c>
       <c r="B18" t="n">
-        <v>16.70070266723633</v>
+        <v>11.67485237121582</v>
       </c>
       <c r="C18" t="n">
-        <v>13.82530784606934</v>
+        <v>4.071866035461426</v>
       </c>
       <c r="D18" t="n">
-        <v>19.57609748840332</v>
+        <v>19.27783966064453</v>
       </c>
     </row>
     <row r="19">
@@ -1329,13 +1259,13 @@
         <v>2005</v>
       </c>
       <c r="B19" t="n">
-        <v>16.52385711669922</v>
+        <v>12.26043224334717</v>
       </c>
       <c r="C19" t="n">
-        <v>13.02565574645996</v>
+        <v>5.137693881988525</v>
       </c>
       <c r="D19" t="n">
-        <v>20.02205848693848</v>
+        <v>19.38317108154297</v>
       </c>
     </row>
     <row r="20">
@@ -1343,13 +1273,13 @@
         <v>2006</v>
       </c>
       <c r="B20" t="n">
-        <v>16.59698677062988</v>
+        <v>12.25425148010254</v>
       </c>
       <c r="C20" t="n">
-        <v>12.0339412689209</v>
+        <v>4.970721244812012</v>
       </c>
       <c r="D20" t="n">
-        <v>21.16003227233887</v>
+        <v>19.53778076171875</v>
       </c>
     </row>
     <row r="21">
@@ -1357,13 +1287,13 @@
         <v>2007</v>
       </c>
       <c r="B21" t="n">
-        <v>16.59497833251953</v>
+        <v>11.24576187133789</v>
       </c>
       <c r="C21" t="n">
-        <v>12.08786964416504</v>
+        <v>4.49424934387207</v>
       </c>
       <c r="D21" t="n">
-        <v>21.10208702087402</v>
+        <v>17.99727439880371</v>
       </c>
     </row>
     <row r="22">
@@ -1371,13 +1301,13 @@
         <v>2008</v>
       </c>
       <c r="B22" t="n">
-        <v>16.4927864074707</v>
+        <v>11.06292152404785</v>
       </c>
       <c r="C22" t="n">
-        <v>12.4199390411377</v>
+        <v>3.809344291687012</v>
       </c>
       <c r="D22" t="n">
-        <v>20.56563377380371</v>
+        <v>18.31649780273438</v>
       </c>
     </row>
     <row r="23">
@@ -1385,13 +1315,13 @@
         <v>2009</v>
       </c>
       <c r="B23" t="n">
-        <v>16.34018898010254</v>
+        <v>11.41323852539062</v>
       </c>
       <c r="C23" t="n">
-        <v>12.67141914367676</v>
+        <v>4.748929023742676</v>
       </c>
       <c r="D23" t="n">
-        <v>20.00895881652832</v>
+        <v>18.07754898071289</v>
       </c>
     </row>
     <row r="24">
@@ -1399,13 +1329,13 @@
         <v>2010</v>
       </c>
       <c r="B24" t="n">
-        <v>16.29925918579102</v>
+        <v>11.0868444442749</v>
       </c>
       <c r="C24" t="n">
-        <v>12.21232414245605</v>
+        <v>3.721119403839111</v>
       </c>
       <c r="D24" t="n">
-        <v>20.38619422912598</v>
+        <v>18.45256996154785</v>
       </c>
     </row>
     <row r="25">
@@ -1413,13 +1343,13 @@
         <v>2011</v>
       </c>
       <c r="B25" t="n">
-        <v>16.67707824707031</v>
+        <v>11.44845962524414</v>
       </c>
       <c r="C25" t="n">
-        <v>12.19348526000977</v>
+        <v>3.981504440307617</v>
       </c>
       <c r="D25" t="n">
-        <v>21.16067123413086</v>
+        <v>18.91541481018066</v>
       </c>
     </row>
     <row r="26">
@@ -1427,13 +1357,13 @@
         <v>2012</v>
       </c>
       <c r="B26" t="n">
-        <v>16.84570503234863</v>
+        <v>12.53814315795898</v>
       </c>
       <c r="C26" t="n">
-        <v>11.84278011322021</v>
+        <v>5.224655151367188</v>
       </c>
       <c r="D26" t="n">
-        <v>21.84862899780273</v>
+        <v>19.85163116455078</v>
       </c>
     </row>
     <row r="27">
@@ -1441,13 +1371,13 @@
         <v>2013</v>
       </c>
       <c r="B27" t="n">
-        <v>16.7316837310791</v>
+        <v>12.32374000549316</v>
       </c>
       <c r="C27" t="n">
-        <v>11.93003845214844</v>
+        <v>5.592765331268311</v>
       </c>
       <c r="D27" t="n">
-        <v>21.53332901000977</v>
+        <v>19.05471420288086</v>
       </c>
     </row>
     <row r="28">
@@ -1455,13 +1385,13 @@
         <v>2014</v>
       </c>
       <c r="B28" t="n">
-        <v>16.83671951293945</v>
+        <v>12.15406513214111</v>
       </c>
       <c r="C28" t="n">
-        <v>12.57364273071289</v>
+        <v>4.319979667663574</v>
       </c>
       <c r="D28" t="n">
-        <v>21.09979629516602</v>
+        <v>19.98815155029297</v>
       </c>
     </row>
     <row r="29">
@@ -1469,13 +1399,13 @@
         <v>2015</v>
       </c>
       <c r="B29" t="n">
-        <v>16.95649719238281</v>
+        <v>11.77726936340332</v>
       </c>
       <c r="C29" t="n">
-        <v>13.38751220703125</v>
+        <v>2.720414161682129</v>
       </c>
       <c r="D29" t="n">
-        <v>20.52548217773438</v>
+        <v>20.83412551879883</v>
       </c>
     </row>
     <row r="30">
@@ -1483,13 +1413,13 @@
         <v>2016</v>
       </c>
       <c r="B30" t="n">
-        <v>16.95303726196289</v>
+        <v>11.97685432434082</v>
       </c>
       <c r="C30" t="n">
-        <v>13.53752899169922</v>
+        <v>3.323334693908691</v>
       </c>
       <c r="D30" t="n">
-        <v>20.36854553222656</v>
+        <v>20.63037490844727</v>
       </c>
     </row>
     <row r="31">
@@ -1497,13 +1427,13 @@
         <v>2017</v>
       </c>
       <c r="B31" t="n">
-        <v>17.04003715515137</v>
+        <v>11.42669486999512</v>
       </c>
       <c r="C31" t="n">
-        <v>13.75637245178223</v>
+        <v>4.554828643798828</v>
       </c>
       <c r="D31" t="n">
-        <v>20.32370185852051</v>
+        <v>18.29856109619141</v>
       </c>
     </row>
     <row r="32">
@@ -1511,13 +1441,13 @@
         <v>2018</v>
       </c>
       <c r="B32" t="n">
-        <v>16.83758926391602</v>
+        <v>10.99244976043701</v>
       </c>
       <c r="C32" t="n">
-        <v>13.81108665466309</v>
+        <v>4.716236591339111</v>
       </c>
       <c r="D32" t="n">
-        <v>19.86409187316895</v>
+        <v>17.26866340637207</v>
       </c>
     </row>
     <row r="33">
@@ -1525,13 +1455,13 @@
         <v>2019</v>
       </c>
       <c r="B33" t="n">
-        <v>16.63074111938477</v>
+        <v>10.51529788970947</v>
       </c>
       <c r="C33" t="n">
-        <v>13.26271533966064</v>
+        <v>3.805953502655029</v>
       </c>
       <c r="D33" t="n">
-        <v>19.99876594543457</v>
+        <v>17.22464179992676</v>
       </c>
     </row>
     <row r="34">
@@ -1539,13 +1469,13 @@
         <v>2020</v>
       </c>
       <c r="B34" t="n">
-        <v>16.22576141357422</v>
+        <v>10.73524284362793</v>
       </c>
       <c r="C34" t="n">
-        <v>13.03457069396973</v>
+        <v>4.83369255065918</v>
       </c>
       <c r="D34" t="n">
-        <v>19.41695213317871</v>
+        <v>16.63679313659668</v>
       </c>
     </row>
     <row r="35">
@@ -1553,13 +1483,13 @@
         <v>2021</v>
       </c>
       <c r="B35" t="n">
-        <v>16.1563892364502</v>
+        <v>10.93053245544434</v>
       </c>
       <c r="C35" t="n">
-        <v>12.21917057037354</v>
+        <v>5.014966487884521</v>
       </c>
       <c r="D35" t="n">
-        <v>20.09360885620117</v>
+        <v>16.84609794616699</v>
       </c>
     </row>
   </sheetData>
@@ -1608,13 +1538,13 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>14.44298305511475</v>
+        <v>16.85932312011719</v>
       </c>
       <c r="C2" t="n">
-        <v>10.08462933597113</v>
+        <v>14.43473326537087</v>
       </c>
       <c r="D2" t="n">
-        <v>18.80133677425837</v>
+        <v>19.28391297486351</v>
       </c>
     </row>
     <row r="3">
@@ -1622,13 +1552,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>18.10532474517822</v>
+        <v>11.40593109130859</v>
       </c>
       <c r="C3" t="n">
-        <v>11.24563369053782</v>
+        <v>7.439631580301292</v>
       </c>
       <c r="D3" t="n">
-        <v>24.96501579981863</v>
+        <v>15.37223060231589</v>
       </c>
     </row>
     <row r="4">
@@ -1636,13 +1566,13 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>13.79736166000366</v>
+        <v>14.92318410873413</v>
       </c>
       <c r="C4" t="n">
-        <v>8.172575494687596</v>
+        <v>9.18188240283326</v>
       </c>
       <c r="D4" t="n">
-        <v>19.42214782531973</v>
+        <v>20.664485814635</v>
       </c>
     </row>
     <row r="5">
@@ -1650,13 +1580,13 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>8.217701292037964</v>
+        <v>18.05381994247437</v>
       </c>
       <c r="C5" t="n">
-        <v>2.475192909171135</v>
+        <v>12.63711190898134</v>
       </c>
       <c r="D5" t="n">
-        <v>13.96020967490479</v>
+        <v>23.47052797596739</v>
       </c>
     </row>
     <row r="6">
@@ -1664,13 +1594,13 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>14.86538524627685</v>
+        <v>11.32477583885193</v>
       </c>
       <c r="C6" t="n">
-        <v>9.970390801377363</v>
+        <v>4.936446899526244</v>
       </c>
       <c r="D6" t="n">
-        <v>19.76037969117635</v>
+        <v>17.71310477817762</v>
       </c>
     </row>
   </sheetData>
